--- a/default/import/excel/type_test.xlsx
+++ b/default/import/excel/type_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E-LINE TECH\Documents\ALFA TECH\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\IMS\Inventory\default\import\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2639A3D3-8A6E-48A6-8A98-61C41CBB9F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DA56733-421C-4C52-AEBB-A3C0B9D93C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5A124B40-D5CE-4C18-B61B-D74E2F40C348}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Type_code</t>
   </si>
@@ -88,6 +88,15 @@
   </si>
   <si>
     <t>Coffee</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Cloth</t>
+  </si>
+  <si>
+    <t>Beverages</t>
   </si>
 </sst>
 </file>
@@ -448,7 +457,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,8 +485,8 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -487,8 +496,8 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -498,8 +507,8 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -509,8 +518,8 @@
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="C5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -520,8 +529,8 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>2</v>
+      <c r="C6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -531,8 +540,8 @@
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="C7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -542,8 +551,8 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
-        <v>4</v>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -553,8 +562,8 @@
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
-        <v>4</v>
+      <c r="C9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -564,8 +573,8 @@
       <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="C10">
-        <v>4</v>
+      <c r="C10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
